--- a/data/long_razon/P18_4-Urba-long_razon.xlsx
+++ b/data/long_razon/P18_4-Urba-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-67,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>48,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-68,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>62,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-67,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>56,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,77%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-74,86; -55,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,91; 94,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,97; 9,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-74,84; -59,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,9; 104,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 21,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-73,04; -61,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,81; 84,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,01; 7,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-58,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>67,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-61,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>52,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-10,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-59,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>59,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-69,63; -36,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,92; 131,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 51,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-70,09; -50,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,07; 98,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,29; 11,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,84; -47,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,79; 93,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 21,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-80,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>168,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-27,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-77,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>40,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-78,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>90,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-10,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-91,48; -62,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>55,04; 394,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-57,84; 23,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-87,23; -59,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 116,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,63; 66,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-87,21; -66,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,33; 183,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-35,85; 24,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-65,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>67,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-66,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>56,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-66,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-3,94%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1273,97 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,95; -56,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,67; 107,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 13,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-72,09; -61,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,89; 80,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 10,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-70,53; -61,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>43,23; 84,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 6,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P18_4-Urba-long_razon.xlsx
+++ b/data/long_razon/P18_4-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -678,509 +683,145 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
+      <c r="O4" s="5" t="inlineStr"/>
+      <c r="P4" s="5" t="inlineStr"/>
+      <c r="Q4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
+      <c r="O5" s="5" t="inlineStr"/>
+      <c r="P5" s="5" t="inlineStr"/>
+      <c r="Q5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+      <c r="O6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
+      <c r="O7" s="5" t="inlineStr"/>
+      <c r="P7" s="5" t="inlineStr"/>
+      <c r="Q7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
+      <c r="O8" s="5" t="inlineStr"/>
+      <c r="P8" s="5" t="inlineStr"/>
+      <c r="Q8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
+      <c r="O9" s="5" t="inlineStr"/>
+      <c r="P9" s="5" t="inlineStr"/>
+      <c r="Q9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1188,167 +829,143 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
+      <c r="O10" s="5" t="inlineStr"/>
+      <c r="P10" s="5" t="inlineStr"/>
+      <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr"/>
+      <c r="P11" s="5" t="inlineStr"/>
+      <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+      <c r="O12" s="5" t="inlineStr"/>
+      <c r="P12" s="5" t="inlineStr"/>
+      <c r="Q12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+      <c r="O13" s="5" t="inlineStr"/>
+      <c r="P13" s="5" t="inlineStr"/>
+      <c r="Q13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+      <c r="O14" s="5" t="inlineStr"/>
+      <c r="P14" s="5" t="inlineStr"/>
+      <c r="Q14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+      <c r="O15" s="5" t="inlineStr"/>
+      <c r="P15" s="5" t="inlineStr"/>
+      <c r="Q15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1356,14 +973,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P18_4-Urba-long_razon.xlsx
+++ b/data/long_razon/P18_4-Urba-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.6776282652436777</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.5353840642293055</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1482886705978641</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.2318740636028156</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.06450552894603977</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.6725048274004068</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.6103552674695598</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.003749289355212634</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.2340124981196135</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.2618841678817461</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.6750191708495963</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.5754207588092771</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.07204199887464766</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>-0.2331138998569334</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>-0.166480930090579</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.7552835649616747</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.1687715634922686</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.325389582401931</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.4469627886866733</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.3153990807220809</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.7478942097570275</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.3272194017346018</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.1784402593169481</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3943167480144653</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.4293026942980118</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.726424215262628</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.3186053513698806</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.2121308488741477</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.3615307361022386</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.3201358403265951</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>-0.5681486302103742</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.060727415666916</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.09054186769933789</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.03067431587178884</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.2309553301701257</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.5892188820367781</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.0104853985212</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.1917343382543279</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.02734354920854128</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>-0.05520494926226705</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>-0.6040782356927193</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.8527694061818126</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.0736690036853917</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>-0.06609554564320345</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0.02641056277594782</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.6425139520381905</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.6788788378931607</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.1372751895098185</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.1691901440032703</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.1457546258632257</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.6209127245488019</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.5556801525062496</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.1121681048489609</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.3638040141691501</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.3407822512886304</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.6315845998484232</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.6124113228488437</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-0.000788829222747315</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>-0.2768598214865323</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>-0.1275091816473963</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.7386259052883739</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.2150350583434699</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.1687990025299089</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.40262423737263</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.3051154223335432</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.7017929962043702</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.1812703132093095</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.2824911479135171</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.5057479895376464</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.5863489064637598</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.6976239370492726</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.320044965611831</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.1534920200845455</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.4101726626986901</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.3779605181475496</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>-0.5281147874935601</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.283566639506339</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4536487899241566</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1788799965435371</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.9473087367364249</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.5132261645445109</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.013645396117443</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.08695786789732907</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>-0.1527215158643484</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.03942644241281781</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>-0.5529527086447152</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.9273209446892769</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.1763733255217765</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>-0.07689923765314459</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>0.1944551270988621</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,20 +1009,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.8283439422367147</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.618942309286266</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.2808058024068775</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.8899987207792366</v>
+      </c>
       <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.7515217049745371</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.4579854945960435</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.02836591923721992</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.307316165563311</v>
+      </c>
       <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>-0.7913217313052947</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.9208353394321972</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-0.1274891936093053</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.2127504973905869</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -852,20 +1056,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.9267992214399701</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.5319848353782527</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.5672587419521372</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.05335613363198015</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-0.8593176806255047</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.07885414861406512</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.3427465815599657</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.6125188167959804</v>
+      </c>
       <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
+        <v>-0.8749768782830177</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.3492581014204101</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.3846369516100645</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.2486347001841567</v>
+      </c>
       <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -875,20 +1103,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>-0.6562471298613199</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.744504337336326</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.2502978322385642</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.934594433279289</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>-0.5678945589908667</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.233255610540131</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.5340220187013243</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.189924997795573</v>
+      </c>
       <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="n">
+        <v>-0.6633404521798887</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.776648443683806</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.2012297295049608</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.8094674104583127</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -902,21 +1154,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.6828880386951756</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.6962192394203502</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.06304086956872924</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.09783245032560285</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.01710895393026904</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.6617180280005655</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.5706478647650173</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.04041202839661277</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.2923867208377424</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.2822893311296856</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.6722019807136511</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.6279592589441115</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>-0.05125996028330613</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>-0.2082716652184021</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>-0.1570131836288313</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1207,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.7474167267935995</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.3776462749267891</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.211683407808356</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2676430286437934</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.2300036362187894</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.7108066044063234</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.373177216579797</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1559192303780396</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.4058761060938295</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.4263803563135066</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.7120163450545128</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.4436432609782496</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.1549551276753181</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.3094736467524304</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.2769182078409574</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1260,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>-0.6170948382988068</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.074311737647494</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.1348124842136897</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.1370659224675524</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2868237387693613</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.5996389113722516</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.8608930837392031</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.09210189026545705</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.1660969304533284</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>-0.1095970220083487</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>-0.633372338272241</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.8510215992681746</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.04787994757063639</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>-0.086795174005633</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.007952949902305925</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
